--- a/spliced/walkingToRunning/2023-03-27_19-43-15/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-43-15/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.935386657714844</v>
+        <v>1.45181941986084</v>
       </c>
       <c r="D2" t="n">
-        <v>-20.30976104736328</v>
+        <v>-10.64814472198486</v>
       </c>
       <c r="E2" t="n">
-        <v>10.9278678894043</v>
+        <v>5.583051204681396</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4161854982376098</v>
+        <v>-0.7805059552192688</v>
       </c>
       <c r="G2" t="n">
-        <v>2.661696434020996</v>
+        <v>-0.7913583517074585</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.426389098167419</v>
+        <v>0.3286340832710266</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.922998905181885</v>
+        <v>12.47824478149414</v>
       </c>
       <c r="D3" t="n">
-        <v>-22.64658546447754</v>
+        <v>-36.90848541259766</v>
       </c>
       <c r="E3" t="n">
-        <v>13.07839107513428</v>
+        <v>23.18166542053223</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.087868690490723</v>
+        <v>0.1883520781993866</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.132277011871338</v>
+        <v>0.3149188160896301</v>
       </c>
       <c r="H3" t="n">
-        <v>3.167563915252685</v>
+        <v>-0.798948347568512</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-17.48348999023438</v>
+        <v>4.87645149230957</v>
       </c>
       <c r="D4" t="n">
-        <v>3.01125955581665</v>
+        <v>-11.23874282836914</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.847013473510742</v>
+        <v>11.8306131362915</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.064251899719238</v>
+        <v>2.627274990081787</v>
       </c>
       <c r="G4" t="n">
-        <v>4.051333904266357</v>
+        <v>-2.136787414550781</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5699164867401123</v>
+        <v>-1.515871286392212</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-9.656459808349609</v>
+        <v>3.935386657714844</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.639880180358887</v>
+        <v>-20.30976104736328</v>
       </c>
       <c r="E5" t="n">
-        <v>1.525803089141846</v>
+        <v>10.9278678894043</v>
       </c>
       <c r="F5" t="n">
-        <v>3.350589513778687</v>
+        <v>-0.4161854982376098</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.077699184417725</v>
+        <v>2.661696434020996</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3270362019538879</v>
+        <v>-1.426389098167419</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.44024848937988</v>
+        <v>6.922998905181885</v>
       </c>
       <c r="D6" t="n">
-        <v>-40.82086944580078</v>
+        <v>-22.64658546447754</v>
       </c>
       <c r="E6" t="n">
-        <v>14.10586166381836</v>
+        <v>13.07839107513428</v>
       </c>
       <c r="F6" t="n">
-        <v>2.837132215499878</v>
+        <v>-3.087868690490723</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.239868640899658</v>
+        <v>-3.132277011871338</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.359277486801148</v>
+        <v>3.167563915252685</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-15.60717296600342</v>
+        <v>-17.48348999023438</v>
       </c>
       <c r="D7" t="n">
-        <v>-21.49799346923828</v>
+        <v>3.01125955581665</v>
       </c>
       <c r="E7" t="n">
-        <v>26.6249885559082</v>
+        <v>-5.847013473510742</v>
       </c>
       <c r="F7" t="n">
-        <v>6.7850022315979</v>
+        <v>-8.064251899719238</v>
       </c>
       <c r="G7" t="n">
-        <v>5.038301467895508</v>
+        <v>4.051333904266357</v>
       </c>
       <c r="H7" t="n">
-        <v>0.312122493982315</v>
+        <v>0.5699164867401123</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.734474897384644</v>
+        <v>-9.656459808349609</v>
       </c>
       <c r="D8" t="n">
-        <v>2.406877994537353</v>
+        <v>-6.639880180358887</v>
       </c>
       <c r="E8" t="n">
-        <v>10.91264820098877</v>
+        <v>1.525803089141846</v>
       </c>
       <c r="F8" t="n">
-        <v>2.806239366531372</v>
+        <v>3.350589513778687</v>
       </c>
       <c r="G8" t="n">
-        <v>1.31573474407196</v>
+        <v>-4.077699184417725</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.794970631599426</v>
+        <v>-0.3270362019538879</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31.86017036437988</v>
+        <v>20.44024848937988</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.68617630004883</v>
+        <v>-40.82086944580078</v>
       </c>
       <c r="E9" t="n">
-        <v>40.4693717956543</v>
+        <v>14.10586166381836</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.413057804107666</v>
+        <v>2.837132215499878</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4736432135105133</v>
+        <v>-3.239868640899658</v>
       </c>
       <c r="H9" t="n">
-        <v>2.279133319854736</v>
+        <v>-1.359277486801148</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-57.41475677490234</v>
+        <v>-15.60717296600342</v>
       </c>
       <c r="D10" t="n">
-        <v>17.37560653686523</v>
+        <v>-21.49799346923828</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.54984855651856</v>
+        <v>26.6249885559082</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.49536657333374</v>
+        <v>6.7850022315979</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.257694959640503</v>
+        <v>5.038301467895508</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.082059383392334</v>
+        <v>0.312122493982315</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-13.51763439178467</v>
+        <v>1.734474897384644</v>
       </c>
       <c r="D11" t="n">
-        <v>-10.28693199157715</v>
+        <v>2.406877994537353</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.659794807434082</v>
+        <v>10.91264820098877</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6288388967514038</v>
+        <v>2.806239366531372</v>
       </c>
       <c r="G11" t="n">
-        <v>10.04877281188965</v>
+        <v>1.31573474407196</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.388039588928223</v>
+        <v>-1.794970631599426</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-20.15132904052734</v>
+        <v>31.86017036437988</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.33749389648438</v>
+        <v>-35.68617630004883</v>
       </c>
       <c r="E12" t="n">
-        <v>21.29398727416992</v>
+        <v>40.4693717956543</v>
       </c>
       <c r="F12" t="n">
-        <v>4.64808177947998</v>
+        <v>-4.413057804107666</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.816709280014038</v>
+        <v>0.4736432135105133</v>
       </c>
       <c r="H12" t="n">
-        <v>2.034122467041016</v>
+        <v>2.279133319854736</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15.73336029052734</v>
+        <v>-57.41475677490234</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.189780712127686</v>
+        <v>17.37560653686523</v>
       </c>
       <c r="E13" t="n">
-        <v>11.97433757781982</v>
+        <v>-13.54984855651856</v>
       </c>
       <c r="F13" t="n">
-        <v>6.68113899230957</v>
+        <v>-5.49536657333374</v>
       </c>
       <c r="G13" t="n">
-        <v>7.193863868713379</v>
+        <v>-2.257694959640503</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3451456725597381</v>
+        <v>-2.082059383392334</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.30455780029297</v>
+        <v>-13.51763439178467</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.82610034942627</v>
+        <v>-10.28693199157715</v>
       </c>
       <c r="E14" t="n">
-        <v>17.12981605529785</v>
+        <v>-0.659794807434082</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.778942108154297</v>
+        <v>0.6288388967514038</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.685398578643799</v>
+        <v>10.04877281188965</v>
       </c>
       <c r="H14" t="n">
-        <v>1.103613972663879</v>
+        <v>-1.388039588928223</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-34.54495620727539</v>
+        <v>-20.15132904052734</v>
       </c>
       <c r="D15" t="n">
-        <v>-21.88593673706055</v>
+        <v>-55.33749389648438</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.297530174255371</v>
+        <v>21.29398727416992</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.552108764648438</v>
+        <v>4.64808177947998</v>
       </c>
       <c r="G15" t="n">
-        <v>1.416934847831726</v>
+        <v>-3.816709280014038</v>
       </c>
       <c r="H15" t="n">
-        <v>2.430400848388672</v>
+        <v>2.034122467041016</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.65779495239258</v>
+        <v>15.73336029052734</v>
       </c>
       <c r="D16" t="n">
-        <v>5.878978252410889</v>
+        <v>-4.189780712127686</v>
       </c>
       <c r="E16" t="n">
-        <v>2.555978298187256</v>
+        <v>11.97433757781982</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.362174272537231</v>
+        <v>6.68113899230957</v>
       </c>
       <c r="G16" t="n">
-        <v>17.18923950195312</v>
+        <v>7.193863868713379</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.967010855674744</v>
+        <v>0.3451456725597381</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.989975452423096</v>
+        <v>15.30455780029297</v>
       </c>
       <c r="D17" t="n">
-        <v>-18.37696075439453</v>
+        <v>-12.82610034942627</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.741829395294189</v>
+        <v>17.12981605529785</v>
       </c>
       <c r="F17" t="n">
-        <v>1.812880396842956</v>
+        <v>-2.778942108154297</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.756521940231323</v>
+        <v>-2.685398578643799</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.184607982635498</v>
+        <v>1.103613972663879</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13.91487789154053</v>
+        <v>-34.54495620727539</v>
       </c>
       <c r="D18" t="n">
-        <v>-47.14267730712891</v>
+        <v>-21.88593673706055</v>
       </c>
       <c r="E18" t="n">
-        <v>13.05474662780762</v>
+        <v>-7.297530174255371</v>
       </c>
       <c r="F18" t="n">
-        <v>8.206597328186035</v>
+        <v>-6.552108764648438</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.100137710571289</v>
+        <v>1.416934847831726</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.368615627288818</v>
+        <v>2.430400848388672</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2568814754486084</v>
+        <v>34.65779495239258</v>
       </c>
       <c r="D19" t="n">
-        <v>1.619793891906739</v>
+        <v>5.878978252410889</v>
       </c>
       <c r="E19" t="n">
-        <v>9.530179977416992</v>
+        <v>2.555978298187256</v>
       </c>
       <c r="F19" t="n">
-        <v>3.973769426345825</v>
+        <v>-3.362174272537231</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.186322212219238</v>
+        <v>17.18923950195312</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.423193335533142</v>
+        <v>-1.967010855674744</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-26.04407691955566</v>
+        <v>2.989975452423096</v>
       </c>
       <c r="D20" t="n">
-        <v>-81.46482086181641</v>
+        <v>-18.37696075439453</v>
       </c>
       <c r="E20" t="n">
-        <v>51.38869094848633</v>
+        <v>-2.741829395294189</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.724081039428711</v>
+        <v>1.812880396842956</v>
       </c>
       <c r="G20" t="n">
-        <v>3.562910079956055</v>
+        <v>-3.756521940231323</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9864348769187928</v>
+        <v>-3.184607982635498</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>13.91487789154053</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-47.14267730712891</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.05474662780762</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.206597328186035</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-8.100137710571289</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.368615627288818</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2568814754486084</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.619793891906739</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.530179977416992</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.973769426345825</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.186322212219238</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.423193335533142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-26.04407691955566</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-81.46482086181641</v>
+      </c>
+      <c r="E23" t="n">
+        <v>51.38869094848633</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.724081039428711</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.562910079956055</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9864348769187928</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>7.554911613464355</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>0.749316930770874</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>-22.46823501586914</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>-11.11730003356934</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-16.41932106018066</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>-2.057025671005249</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.727315902709961</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-7.33059024810791</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0287117958068847</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.472879886627197</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-9.945176124572754</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.769540786743164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.04781913757324</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-51.86902236938477</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.61567497253418</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.245661020278931</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-6.337657928466797</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1816275864839553</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>27.31503295898437</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.940977096557617</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.65385055541992</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.774599075317383</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.254833221435547</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6913566589355469</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3.707320690155029</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.758492469787598</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.369882583618164</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-2.965895891189575</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.341034770011902</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.717206358909607</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18.9058609008789</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-66.31611633300781</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27.15024948120117</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.298542022705078</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.24329674243927</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5667206645011902</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-72.50922393798828</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29.85196113586425</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-13.03144264221191</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-6.537195205688477</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4.836699962615967</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.582733631134033</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-21.97713661193848</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-12.47497940063477</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15.31039047241211</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.381847739219666</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14.15004062652588</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.833388328552246</v>
       </c>
     </row>
   </sheetData>
